--- a/Examples/Earnings.xlsx
+++ b/Examples/Earnings.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabriel\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C690D230-BABA-4180-926F-2D71DBFDDADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="29000" windowHeight="13180"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Earnings" sheetId="9" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="Symbol">Earnings!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -21,12 +27,36 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
@@ -54,25 +84,25 @@
     <t>EPS Surprise %</t>
   </si>
   <si>
-    <t>reportedEPS</t>
-  </si>
-  <si>
-    <t>estimatedEPS</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>surprisePercentage</t>
-  </si>
-  <si>
-    <t>fiscalDateEnding</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Estimate</t>
+  </si>
+  <si>
+    <t>Surprise</t>
+  </si>
+  <si>
+    <t>SurprisePercentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -139,7 +169,7 @@
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -198,7 +228,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,9 +261,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -441,16 +505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="2" width="16.81640625" hidden="1" customWidth="1"/>
-    <col min="3" max="7" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="14.9296875" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" hidden="1" customWidth="1"/>
+    <col min="3" max="7" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -460,16 +524,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C2" s="3">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D2" s="3">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E2" s="3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="F2" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -480,27 +544,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>_xll.xlquoteEarnings(Symbol,$B3,C$2)</f>
-        <v>2019-09-30</v>
+        <v>2022-06-30</v>
       </c>
       <c r="D3" s="1" t="str">
         <f>_xll.xlquoteEarnings(Symbol,$B3,D$2)</f>
-        <v>2019-12-31</v>
+        <v>2022-06-30</v>
       </c>
       <c r="E3" s="1" t="str">
         <f>_xll.xlquoteEarnings(Symbol,$B3,E$2)</f>
-        <v>2020-03-31</v>
-      </c>
-      <c r="F3" s="1" t="str">
-        <f>_xll.xlquoteEarnings(Symbol,$B3,F$2)</f>
-        <v>2020-06-30</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>_xll.xlquoteEarnings(Symbol,$B3,G$2)</f>
-        <v>2020-09-30</v>
+        <v>2022-06-30</v>
+      </c>
+      <c r="F3" s="1" t="str" cm="1">
+        <f t="array" ref="F3">_xll.xlquoteEarnings(Symbol,$B3,F$2)</f>
+        <v>2022-06-30</v>
+      </c>
+      <c r="G3" s="1" t="str" cm="1">
+        <f t="array" ref="G3">_xll.xlquoteEarnings(Symbol,$B3,G$2)</f>
+        <v>2022-09-30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
@@ -508,27 +572,27 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B4,C$2)</f>
-        <v>0.76</v>
+        <v>1.2</v>
       </c>
       <c r="D4" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B4,D$2)</f>
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="E4" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B4,E$2)</f>
-        <v>0.64</v>
-      </c>
-      <c r="F4" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B4,F$2)</f>
-        <v>0.65</v>
-      </c>
-      <c r="G4" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B4,G$2)</f>
-        <v>0.73</v>
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="1" cm="1">
+        <f t="array" ref="F4">_xll.xlquoteEarnings(Symbol,$B4,F$2)</f>
+        <v>1.2</v>
+      </c>
+      <c r="G4" s="1" cm="1">
+        <f t="array" ref="G4">_xll.xlquoteEarnings(Symbol,$B4,G$2)</f>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
@@ -536,27 +600,27 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B5,C$2)</f>
-        <v>0.71</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D5" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B5,D$2)</f>
-        <v>1.1399999999999999</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E5" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B5,E$2)</f>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F5" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B5,F$2)</f>
-        <v>0.51</v>
-      </c>
-      <c r="G5" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B5,G$2)</f>
-        <v>0.7</v>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="F5" s="1" cm="1">
+        <f t="array" ref="F5">_xll.xlquoteEarnings(Symbol,$B5,F$2)</f>
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="G5" s="1" cm="1">
+        <f t="array" ref="G5">_xll.xlquoteEarnings(Symbol,$B5,G$2)</f>
+        <v>1.27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
@@ -564,27 +628,27 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B6,C$2)</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="D6" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B6,D$2)</f>
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="E6" s="1">
         <f>_xll.xlquoteEarnings(Symbol,$B6,E$2)</f>
-        <v>0.08</v>
-      </c>
-      <c r="F6" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B6,F$2)</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="G6" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B6,G$2)</f>
-        <v>0.03</v>
+        <v>0.04</v>
+      </c>
+      <c r="F6" s="1" cm="1">
+        <f t="array" ref="F6">_xll.xlquoteEarnings(Symbol,$B6,F$2)</f>
+        <v>0.04</v>
+      </c>
+      <c r="G6" s="1" cm="1">
+        <f t="array" ref="G6">_xll.xlquoteEarnings(Symbol,$B6,G$2)</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
@@ -592,27 +656,27 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <f>_xll.xlquoteEarnings(Symbol,$B7,C$2)/100</f>
-        <v>7.0422999999999999E-2</v>
+        <v>3.4483E-2</v>
       </c>
       <c r="D7" s="2">
         <f>_xll.xlquoteEarnings(Symbol,$B7,D$2)/100</f>
-        <v>9.6491000000000007E-2</v>
+        <v>3.4483E-2</v>
       </c>
       <c r="E7" s="2">
         <f>_xll.xlquoteEarnings(Symbol,$B7,E$2)/100</f>
-        <v>0.14285700000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <f>_xll.xlquoteEarnings(Symbol,$B7,F$2)/100</f>
-        <v>0.27451000000000003</v>
-      </c>
-      <c r="G7" s="2">
-        <f>_xll.xlquoteEarnings(Symbol,$B7,G$2)/100</f>
-        <v>4.2857000000000006E-2</v>
+        <v>3.4483E-2</v>
+      </c>
+      <c r="F7" s="2" cm="1">
+        <f t="array" ref="F7">_xll.xlquoteEarnings(Symbol,$B7,F$2)/100</f>
+        <v>3.4483E-2</v>
+      </c>
+      <c r="G7" s="2" cm="1">
+        <f t="array" ref="G7">_xll.xlquoteEarnings(Symbol,$B7,G$2)/100</f>
+        <v>1.5747999999999998E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
@@ -620,27 +684,27 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B8,C$2+4)</f>
-        <v>0.73</v>
+        <f>_xll.xlquoteEarnings(Symbol,$B8,C$2-4)</f>
+        <v>1.3</v>
       </c>
       <c r="D8" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B8,D$2+4)</f>
-        <v>1.05</v>
+        <f>_xll.xlquoteEarnings(Symbol,$B8,D$2-4)</f>
+        <v>1.3</v>
       </c>
       <c r="E8" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B8,E$2+4)</f>
-        <v>0.62</v>
-      </c>
-      <c r="F8" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B8,F$2+4)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="G8" s="1">
-        <f>_xll.xlquoteEarnings(Symbol,$B8,G$2+4)</f>
-        <v>0.76</v>
+        <f>_xll.xlquoteEarnings(Symbol,$B8,E$2-4)</f>
+        <v>1.3</v>
+      </c>
+      <c r="F8" s="1" cm="1">
+        <f t="array" ref="F8">_xll.xlquoteEarnings(Symbol,$B8,F$2-4)</f>
+        <v>1.3</v>
+      </c>
+      <c r="G8" s="1" cm="1">
+        <f t="array" ref="G8">_xll.xlquoteEarnings(Symbol,$B8,G$2-4)</f>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -649,23 +713,23 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" ref="C9:F9" si="0">C4/C8-1</f>
-        <v>4.1095890410958846E-2</v>
+        <v>-7.6923076923076983E-2</v>
       </c>
       <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>0.19047619047619047</v>
+        <v>-7.6923076923076983E-2</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>3.2258064516129004E-2</v>
+        <v>-7.6923076923076983E-2</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>0.18181818181818166</v>
+        <v>-7.6923076923076983E-2</v>
       </c>
       <c r="G9" s="2">
         <f>G4/G8-1</f>
-        <v>-3.9473684210526327E-2</v>
+        <v>4.0322580645161255E-2</v>
       </c>
     </row>
   </sheetData>
